--- a/trunk/Documentacion/Mockups/charts.xlsx
+++ b/trunk/Documentacion/Mockups/charts.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12705"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12705" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sueldo Agente" sheetId="1" r:id="rId1"/>
+    <sheet name="Totales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>Agente</t>
   </si>
@@ -112,6 +111,18 @@
   </si>
   <si>
     <t>Proyección al 30/09/2010</t>
+  </si>
+  <si>
+    <t>Nicolás Cohen</t>
+  </si>
+  <si>
+    <t>Duilio Hernández</t>
+  </si>
+  <si>
+    <t>Ignacio Arribálzaga</t>
+  </si>
+  <si>
+    <t>Promedio</t>
   </si>
 </sst>
 </file>
@@ -180,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -218,23 +229,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
@@ -242,6 +306,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF91B1F9"/>
+      <color rgb="FF316DF3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -295,7 +365,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$6</c:f>
+              <c:f>'Sueldo Agente'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -315,7 +385,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$O$10</c:f>
+              <c:f>'Sueldo Agente'!$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -324,7 +394,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$7</c:f>
+              <c:f>'Sueldo Agente'!$C$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -340,7 +410,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$6</c:f>
+              <c:f>'Sueldo Agente'!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -357,7 +427,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$O$10</c:f>
+              <c:f>'Sueldo Agente'!$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -366,7 +436,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$7</c:f>
+              <c:f>'Sueldo Agente'!$D$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -387,11 +457,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="51637760"/>
-        <c:axId val="67303616"/>
+        <c:axId val="82228224"/>
+        <c:axId val="68330048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51637760"/>
+        <c:axId val="82228224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,7 +471,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67303616"/>
+        <c:crossAx val="68330048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -409,7 +479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67303616"/>
+        <c:axId val="68330048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -421,7 +491,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51637760"/>
+        <c:crossAx val="82228224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -488,7 +558,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$6</c:f>
+              <c:f>'Sueldo Agente'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -513,7 +583,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$N$9</c:f>
+              <c:f>'Sueldo Agente'!$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -522,7 +592,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$8</c:f>
+              <c:f>'Sueldo Agente'!$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -538,7 +608,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$6</c:f>
+              <c:f>'Sueldo Agente'!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -555,7 +625,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$N$9</c:f>
+              <c:f>'Sueldo Agente'!$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -564,7 +634,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$8</c:f>
+              <c:f>'Sueldo Agente'!$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -585,11 +655,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="82065920"/>
-        <c:axId val="148376384"/>
+        <c:axId val="82228736"/>
+        <c:axId val="68332352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82065920"/>
+        <c:axId val="82228736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,7 +669,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148376384"/>
+        <c:crossAx val="68332352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -607,7 +677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148376384"/>
+        <c:axId val="68332352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,10 +688,18 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82065920"/>
+        <c:crossAx val="82228736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -642,6 +720,14 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx2">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -695,7 +781,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$6</c:f>
+              <c:f>'Sueldo Agente'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -715,7 +801,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$7</c:f>
+              <c:f>'Sueldo Agente'!$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -724,7 +810,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$9</c:f>
+              <c:f>'Sueldo Agente'!$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -740,7 +826,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$6</c:f>
+              <c:f>'Sueldo Agente'!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -757,7 +843,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$7</c:f>
+              <c:f>'Sueldo Agente'!$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -766,7 +852,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$9</c:f>
+              <c:f>'Sueldo Agente'!$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -787,11 +873,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="131710976"/>
-        <c:axId val="148380416"/>
+        <c:axId val="82229248"/>
+        <c:axId val="68334656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131710976"/>
+        <c:axId val="82229248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +887,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148380416"/>
+        <c:crossAx val="68334656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -809,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148380416"/>
+        <c:axId val="68334656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -821,7 +907,633 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131710976"/>
+        <c:crossAx val="82229248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>I2C_PTC(promedio)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Totales!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21/09/2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sueldo Agente'!$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Totales!$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Totales!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proyección al 30/09/2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sueldo Agente'!$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Totales!$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.27428571428571424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="123846144"/>
+        <c:axId val="68335808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="123846144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68335808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68335808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123846144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="1F497D">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="1F497D">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:srgbClr>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>AVG_HDL_TM(promedio)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Totales!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21/09/2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sueldo Agente'!$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Totales!$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>377.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Totales!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proyección al 30/09/2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sueldo Agente'!$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Totales!$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>161.89285714285717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="123125760"/>
+        <c:axId val="123232256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="123125760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123232256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="123232256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123125760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx2">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>CSAT(promedio)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Totales!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21/09/2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sueldo Agente'!$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Totales!$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.46499999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Totales!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proyección al 30/09/2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sueldo Agente'!$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Totales!$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.19928571428571432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="50787328"/>
+        <c:axId val="125393088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50787328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125393088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="125393088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50787328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -923,6 +1635,107 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>243985</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="8 Gráfico" title="I2C_PTC"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428627</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="11 Gráfico" title="AVG_HDL_TM"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>446210</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="12 Gráfico"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1227,16 +2040,298 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="1F497D"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="EEECE1"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4F81BD"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="C0504D"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="9BBB59"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="8064A2"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4BACC6"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="F79646"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0000FF"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="800080"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Cambria"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="50000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="35000">
+            <a:schemeClr val="phClr">
+              <a:tint val="37000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:tint val="15000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="1"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:shade val="51000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="80000">
+            <a:schemeClr val="phClr">
+              <a:shade val="93000"/>
+              <a:satMod val="130000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="94000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="16200000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="40000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="40000">
+            <a:schemeClr val="phClr">
+              <a:tint val="45000"/>
+              <a:shade val="99000"/>
+              <a:satMod val="350000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="20000"/>
+              <a:satMod val="255000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="80000"/>
+              <a:satMod val="300000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="30000"/>
+              <a:satMod val="200000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J10"/>
+  <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
@@ -1247,151 +2342,192 @@
     <col min="10" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="4">
         <v>40422</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>40442</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.67</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f>(C7/21)*30-C7</f>
         <v>0.28714285714285726</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="8">
         <v>380</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <f>(C8/21)*30-C8</f>
         <v>162.85714285714289</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="11">
         <v>0.45</v>
       </c>
-      <c r="D9" s="9">
-        <f t="shared" ref="D8:D9" si="0">(C9/21)*30-C9</f>
+      <c r="D9" s="11">
+        <f t="shared" ref="D9" si="0">(C9/21)*30-C9</f>
         <v>0.19285714285714289</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="5" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1404,24 +2540,352 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>40422</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>40442</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="E6" s="6">
+        <f>(D6/21)*30-D6</f>
+        <v>0.29142857142857148</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
+        <v>380</v>
+      </c>
+      <c r="E7" s="9">
+        <f>(D7/21)*30-D7</f>
+        <v>162.85714285714289</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" ref="E8" si="0">(D8/21)*30-D8</f>
+        <v>0.19285714285714289</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E9" s="13">
+        <f>(D9/21)*30-D9</f>
+        <v>0.23571428571428565</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="10">
+        <v>370</v>
+      </c>
+      <c r="E10" s="14">
+        <f>(D10/21)*30-D10</f>
+        <v>158.57142857142867</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.49</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" ref="E11" si="1">(D11/21)*30-D11</f>
+        <v>0.21000000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E12" s="6">
+        <f>(D12/21)*30-D12</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8">
+        <v>377</v>
+      </c>
+      <c r="E13" s="9">
+        <f>(D13/21)*30-D13</f>
+        <v>161.57142857142856</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.41</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" ref="E14" si="2">(D14/21)*30-D14</f>
+        <v>0.17571428571428577</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.63</v>
+      </c>
+      <c r="E15" s="17">
+        <f>(D15/21)*30-D15</f>
+        <v>0.26999999999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12">
+        <v>384</v>
+      </c>
+      <c r="E16" s="18">
+        <f>(D16/21)*30-D16</f>
+        <v>164.57142857142856</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.51</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" ref="E17" si="3">(D17/21)*30-D17</f>
+        <v>0.21857142857142853</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="17">
+        <f>(D6+D9+D12+D15)/4</f>
+        <v>0.64</v>
+      </c>
+      <c r="E18" s="17">
+        <f>(E6+E9+E12+E15)/4</f>
+        <v>0.27428571428571424</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9">
+        <f>(D7+D10+D13+D16)/4</f>
+        <v>377.75</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" ref="D19:E20" si="4">(E7+E10+E13+E16)/4</f>
+        <v>161.89285714285717</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="11">
+        <f>(D8+D11+D14+D17)/4</f>
+        <v>0.46499999999999997</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="4"/>
+        <v>0.19928571428571432</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/trunk/Documentacion/Mockups/charts.xlsx
+++ b/trunk/Documentacion/Mockups/charts.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12705" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12705" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sueldo Agente" sheetId="1" r:id="rId1"/>
+    <sheet name="Performance Agente" sheetId="1" r:id="rId1"/>
     <sheet name="Totales" sheetId="2" r:id="rId2"/>
+    <sheet name="Performance Agente V2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
   <si>
     <t>Agente</t>
   </si>
@@ -243,11 +244,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -299,6 +297,10 @@
     <xf numFmtId="1" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
@@ -365,7 +367,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sueldo Agente'!$C$6</c:f>
+              <c:f>'Performance Agente'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -385,7 +387,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$O$10</c:f>
+              <c:f>'Performance Agente'!$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -394,7 +396,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$C$7</c:f>
+              <c:f>'Performance Agente'!$C$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -410,7 +412,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sueldo Agente'!$D$6</c:f>
+              <c:f>'Performance Agente'!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -427,7 +429,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$O$10</c:f>
+              <c:f>'Performance Agente'!$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -436,7 +438,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$D$7</c:f>
+              <c:f>'Performance Agente'!$D$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -457,11 +459,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="82228224"/>
-        <c:axId val="68330048"/>
+        <c:axId val="79533056"/>
+        <c:axId val="69361664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82228224"/>
+        <c:axId val="79533056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -471,7 +473,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68330048"/>
+        <c:crossAx val="69361664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -479,7 +481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68330048"/>
+        <c:axId val="69361664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -491,7 +493,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82228224"/>
+        <c:crossAx val="79533056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -558,7 +560,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sueldo Agente'!$C$6</c:f>
+              <c:f>'Performance Agente'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -583,7 +585,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$N$9</c:f>
+              <c:f>'Performance Agente'!$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -592,7 +594,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$C$8</c:f>
+              <c:f>'Performance Agente'!$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -608,7 +610,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sueldo Agente'!$D$6</c:f>
+              <c:f>'Performance Agente'!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -625,7 +627,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$N$9</c:f>
+              <c:f>'Performance Agente'!$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -634,7 +636,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$D$8</c:f>
+              <c:f>'Performance Agente'!$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
@@ -655,11 +657,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="82228736"/>
-        <c:axId val="68332352"/>
+        <c:axId val="79533568"/>
+        <c:axId val="69363968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82228736"/>
+        <c:axId val="79533568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,7 +671,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68332352"/>
+        <c:crossAx val="69363968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -677,7 +679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68332352"/>
+        <c:axId val="69363968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +690,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82228736"/>
+        <c:crossAx val="79533568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -781,7 +783,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sueldo Agente'!$C$6</c:f>
+              <c:f>'Performance Agente'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -801,7 +803,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$A$7</c:f>
+              <c:f>'Performance Agente'!$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -810,7 +812,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$C$9</c:f>
+              <c:f>'Performance Agente'!$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -826,7 +828,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sueldo Agente'!$D$6</c:f>
+              <c:f>'Performance Agente'!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -843,7 +845,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$A$7</c:f>
+              <c:f>'Performance Agente'!$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -852,7 +854,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$D$9</c:f>
+              <c:f>'Performance Agente'!$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -873,11 +875,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="82229248"/>
-        <c:axId val="68334656"/>
+        <c:axId val="79534080"/>
+        <c:axId val="69366272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82229248"/>
+        <c:axId val="79534080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +889,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68334656"/>
+        <c:crossAx val="69366272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68334656"/>
+        <c:axId val="69366272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -907,7 +909,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82229248"/>
+        <c:crossAx val="79534080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -995,7 +997,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$O$10</c:f>
+              <c:f>'Performance Agente'!$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1037,7 +1039,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$O$10</c:f>
+              <c:f>'Performance Agente'!$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1067,11 +1069,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="123846144"/>
-        <c:axId val="68335808"/>
+        <c:axId val="72164352"/>
+        <c:axId val="52363264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123846144"/>
+        <c:axId val="72164352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1083,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68335808"/>
+        <c:crossAx val="52363264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1089,7 +1091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68335808"/>
+        <c:axId val="52363264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1101,7 +1103,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123846144"/>
+        <c:crossAx val="72164352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1209,7 +1211,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$N$9</c:f>
+              <c:f>'Performance Agente'!$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1251,7 +1253,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$N$9</c:f>
+              <c:f>'Performance Agente'!$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1281,11 +1283,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="123125760"/>
-        <c:axId val="123232256"/>
+        <c:axId val="52270592"/>
+        <c:axId val="52363840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="123125760"/>
+        <c:axId val="52270592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1297,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123232256"/>
+        <c:crossAx val="52363840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1303,7 +1305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123232256"/>
+        <c:axId val="52363840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1316,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123125760"/>
+        <c:crossAx val="52270592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1427,7 +1429,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$A$7</c:f>
+              <c:f>'Performance Agente'!$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1469,7 +1471,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sueldo Agente'!$A$7</c:f>
+              <c:f>'Performance Agente'!$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1499,11 +1501,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="50787328"/>
-        <c:axId val="125393088"/>
+        <c:axId val="52271104"/>
+        <c:axId val="52365568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50787328"/>
+        <c:axId val="52271104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1513,7 +1515,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125393088"/>
+        <c:crossAx val="52365568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1521,7 +1523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125393088"/>
+        <c:axId val="52365568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1533,9 +1535,490 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50787328"/>
+        <c:crossAx val="52271104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AVG_HDL_TM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance Agente V2'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30/09/2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Performance Agente'!$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Performance Agente V2'!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>540</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="115013120"/>
+        <c:axId val="77925184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="115013120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77925184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77925184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="115013120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+        <c:minorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx2">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>CSAT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance Agente V2'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30/09/2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Performance Agente'!$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Performance Agente V2'!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="114745344"/>
+        <c:axId val="77928064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="114745344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77928064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77928064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114745344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>I2C_PTC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Performance Agente V2'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30/09/2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Performance Agente V2'!$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Performance Agente V2'!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="114747904"/>
+        <c:axId val="112104512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="114747904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112104512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="112104512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114747904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1736,6 +2219,107 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="13" name="12 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico" title="AVG_HDL_TM"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="4 Gráfico" title="I2C_PTC"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2325,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,190 +2928,190 @@
   <sheetData>
     <row r="1" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>40422</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>40442</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>0.67</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f>(C7/21)*30-C7</f>
         <v>0.28714285714285726</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>380</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <f>(C8/21)*30-C8</f>
         <v>162.85714285714289</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>0.45</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f t="shared" ref="D9" si="0">(C9/21)*30-C9</f>
         <v>0.19285714285714289</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="12" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2542,336 +3126,336 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>40422</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>40442</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0.68</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f>(D6/21)*30-D6</f>
         <v>0.29142857142857148</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>380</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f>(D7/21)*30-D7</f>
         <v>162.85714285714289</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>0.45</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f t="shared" ref="E8" si="0">(D8/21)*30-D8</f>
         <v>0.19285714285714289</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <f>(D9/21)*30-D9</f>
         <v>0.23571428571428565</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>370</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <f>(D10/21)*30-D10</f>
         <v>158.57142857142867</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>0.49</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <f t="shared" ref="E11" si="1">(D11/21)*30-D11</f>
         <v>0.21000000000000008</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>0.7</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <f>(D12/21)*30-D12</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>377</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <f>(D13/21)*30-D13</f>
         <v>161.57142857142856</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>0.41</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <f t="shared" ref="E14" si="2">(D14/21)*30-D14</f>
         <v>0.17571428571428577</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>0.63</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <f>(D15/21)*30-D15</f>
         <v>0.26999999999999991</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>384</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <f>(D16/21)*30-D16</f>
         <v>164.57142857142856</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>0.51</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <f t="shared" ref="E17" si="3">(D17/21)*30-D17</f>
         <v>0.21857142857142853</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <f>(D6+D9+D12+D15)/4</f>
         <v>0.64</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <f>(E6+E9+E12+E15)/4</f>
         <v>0.27428571428571424</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <f>(D7+D10+D13+D16)/4</f>
         <v>377.75</v>
       </c>
-      <c r="E19" s="9">
-        <f t="shared" ref="D19:E20" si="4">(E7+E10+E13+E16)/4</f>
+      <c r="E19" s="8">
+        <f t="shared" ref="E19:E20" si="4">(E7+E10+E13+E16)/4</f>
         <v>161.89285714285717</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <f>(D8+D11+D14+D17)/4</f>
         <v>0.46499999999999997</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <f t="shared" si="4"/>
         <v>0.19928571428571432</v>
       </c>
@@ -2888,4 +3472,202 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>40422</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>40451</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7">
+        <v>540</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>